--- a/test-code-generator/Evaluation/QuantitativeEvaluation/4/UC1_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/4/UC1_TC2.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2120389332380099</v>
+        <v>0.2081927793918561</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.21203893323800993, 'ngram_match_score': 0.031986714055896225, 'weighted_ngram_match_score': 0.1189239167508598, 'syntax_match_score': 0.5408348457350273, 'dataflow_match_score': 0.1564102564102564}</t>
+          <t>{'codebleu': 0.2081927793918561, 'ngram_match_score': 0.031986714055896225, 'weighted_ngram_match_score': 0.1189239167508598, 'syntax_match_score': 0.5408348457350273, 'dataflow_match_score': 0.14102564102564102}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
